--- a/test_cases/LS-S2-PE-54-01.xlsx
+++ b/test_cases/LS-S2-PE-54-01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFC8AC6-946A-42D8-8B5C-CA01F6C5495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D4658F-3EDD-4BBD-8F17-43F8702AF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>LS-S2-PE-54-01</t>
+  </si>
+  <si>
+    <t>PE-54</t>
   </si>
 </sst>
 </file>
@@ -516,6 +519,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,30 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,10 +917,10 @@
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1042,29 +1045,31 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="20"/>
       <c r="D15" s="18" t="s">
         <v>13</v>
@@ -1077,78 +1082,78 @@
       <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="26" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1157,6 +1162,10 @@
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B17:C17"/>
@@ -1170,10 +1179,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1190,12 +1195,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1327,6 +1326,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
   <ds:schemaRefs>
@@ -1336,15 +1341,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1360,4 +1356,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_cases/LS-S2-PE-54-01.xlsx
+++ b/test_cases/LS-S2-PE-54-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D4658F-3EDD-4BBD-8F17-43F8702AF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8561BA44-9D3C-4C19-B74B-E7B5A2C90692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -128,13 +128,13 @@
     <t>se logea y es dirigido a la pagina principal del sitio</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>LS-S2-PE-54-01</t>
   </si>
   <si>
     <t>PE-54</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -519,6 +519,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,36 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -886,7 +886,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,15 +912,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -966,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1045,30 +1045,30 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="18" t="s">
@@ -1082,78 +1082,78 @@
       <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="26" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1162,7 @@
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="D23:E23"/>
@@ -1178,7 +1179,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1186,12 +1186,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,15 +1324,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1359,10 +1360,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test_cases/LS-S2-PE-54-01.xlsx
+++ b/test_cases/LS-S2-PE-54-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8561BA44-9D3C-4C19-B74B-E7B5A2C90692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE1BB32-86BC-4D52-92A3-C20197A933DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,16 +179,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,19 +206,21 @@
       <b/>
       <u/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,21 +476,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -486,29 +489,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -516,14 +504,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -543,29 +528,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -885,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" activeCellId="16" sqref="A1 A2 A3 C1 C2 D3 D7 E7 B7 A7 A5 A13:A14 A15 A17 B17:C17 D17:E17 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,42 +926,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -962,10 +980,10 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="2"/>
@@ -988,21 +1006,21 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1016,7 +1034,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="3"/>
@@ -1028,7 +1046,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
@@ -1038,122 +1056,122 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1162,11 +1180,6 @@
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B17:C17"/>
@@ -1179,6 +1192,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1186,12 +1204,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB1A51B3A996C44B977E632F6DEC33D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2bd25917a97534041ca7931abd8cbbac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="66b336d3-04c8-489c-ac96-6a14a2b4331d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="173f2ba09421de1668a77200cfb94d82" ns2:_="">
     <xsd:import namespace="66b336d3-04c8-489c-ac96-6a14a2b4331d"/>
@@ -1323,6 +1335,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1333,15 +1351,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5A42DB-190E-47E2-A19E-CF7C61BA992E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1359,6 +1368,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B439C089-9FB7-457D-8B04-4B618FE47EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D01FAC-C26F-4BC2-8C04-9A91622ABBCA}">
   <ds:schemaRefs>

--- a/test_cases/LS-S2-PE-54-01.xlsx
+++ b/test_cases/LS-S2-PE-54-01.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBC6286-7EA8-4500-82E9-25E42657AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="01" sheetId="1" r:id="rId4"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjszvFbeWW+tIFTfLd1OkUUmSjdVA=="/>
@@ -120,71 +129,74 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
@@ -194,7 +206,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -204,7 +216,13 @@
     </fill>
   </fills>
   <borders count="18">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -218,8 +236,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -229,6 +249,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -243,14 +264,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -261,6 +286,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -269,9 +295,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -284,6 +312,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -298,6 +327,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -312,17 +342,20 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -334,175 +367,204 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -692,37 +754,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.14"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="11.57"/>
-    <col customWidth="1" min="6" max="6" width="2.57"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="18.29"/>
-    <col customWidth="1" min="9" max="9" width="14.57"/>
-    <col customWidth="1" min="10" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="14.57"/>
-    <col customWidth="1" min="14" max="14" width="18.29"/>
-    <col customWidth="1" min="15" max="26" width="8.86"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,243 +796,247 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="29"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="23.25" customHeight="1">
-      <c r="A8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="20" t="s">
+    <row r="9" spans="1:23" ht="23.25" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="12"/>
+    <row r="10" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="12"/>
-      <c r="F11" s="12"/>
+    <row r="11" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="23" t="s">
+    <row r="12" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="10"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+    <row r="14" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="35" t="s">
+    <row r="16" spans="1:23" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="29"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="39" t="s">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A18" s="26">
+        <v>1</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="29"/>
     </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="39" t="s">
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="26">
+        <v>2</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="29"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A20" s="26">
+        <v>3</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="29"/>
     </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="38">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="26">
+        <v>4</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="29"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="D22" s="40"/>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A22" s="27"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="D23" s="40"/>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="25.5" customHeight="1"/>
-    <row r="27" ht="25.5" customHeight="1"/>
-    <row r="28" ht="25.5" customHeight="1"/>
-    <row r="29" ht="25.5" customHeight="1"/>
-    <row r="30" ht="25.5" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="27" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="29" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="30" spans="1:5" ht="25.5" customHeight="1"/>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1939,11 +2007,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B22:C22"/>
@@ -1956,10 +2019,13 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_cases/LS-S2-PE-54-01.xlsx
+++ b/test_cases/LS-S2-PE-54-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBC6286-7EA8-4500-82E9-25E42657AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB96F4-AEEB-4F1B-865A-E23D0328C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>User = carlos@gmail.com</t>
-  </si>
-  <si>
-    <t>Pass = Car125$</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -105,25 +99,31 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>acceder al sitio :</t>
-  </si>
-  <si>
     <t>el sitio web abre</t>
   </si>
   <si>
-    <t xml:space="preserve">entrar usuario </t>
-  </si>
-  <si>
-    <t>el sitio valida que el correo este bien escrito</t>
-  </si>
-  <si>
-    <t>ingresar contraseña</t>
-  </si>
-  <si>
     <t xml:space="preserve">click boton sing in </t>
   </si>
   <si>
     <t>se logea y es dirigido a la pagina principal del sitio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User = sample@example.com </t>
+  </si>
+  <si>
+    <t>Pass = sample</t>
+  </si>
+  <si>
+    <t>acceder al sitio   http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t>ingresar a sign in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sitio abre el formuario para iniciar sesion </t>
+  </si>
+  <si>
+    <t>ingresar usuario y contreña</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="23.25" customHeight="1">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1">
@@ -918,10 +918,10 @@
     <row r="12" spans="1:23" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:23" ht="14.25" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -937,30 +937,30 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="29"/>
     </row>
@@ -969,11 +969,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="29"/>
     </row>
@@ -982,11 +982,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="29"/>
     </row>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="40"/>
@@ -1006,11 +1006,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" s="29"/>
     </row>
